--- a/Logbook.xlsx
+++ b/Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Experimental Data\Oh-hyeon Choung\P5_ShortProjects\TPD_priority_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B553C2-05A9-4F95-8D33-AE8343A669E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69D90ED-32AF-4A17-82DF-499ACB991756}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25275" windowHeight="10320" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Experimenter</t>
-  </si>
-  <si>
-    <t>Initial</t>
   </si>
   <si>
     <t>Date 1</t>
@@ -136,15 +133,24 @@
   <si>
     <t>Group motion Questionnaire</t>
   </si>
+  <si>
+    <t>subjID</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="m\.d\.yyyy"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="167" formatCode="hh:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="m\.d\.yyyy"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -238,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -268,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -301,14 +307,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -321,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -345,6 +351,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -703,13 +722,13 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.140625" style="45"/>
     <col min="3" max="4" width="12.140625" style="12" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="3" customWidth="1"/>
@@ -736,78 +755,78 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="U1" s="16"/>
       <c r="V1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="Z1" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="AA1" s="18"/>
       <c r="AB1" s="18"/>
@@ -821,10 +840,13 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
+      <c r="B2" s="45" t="s">
+        <v>38</v>
+      </c>
       <c r="C2" s="19"/>
       <c r="D2" s="20"/>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="11"/>
@@ -843,10 +865,13 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
+      <c r="B3" s="45" t="s">
+        <v>39</v>
+      </c>
       <c r="C3" s="19"/>
       <c r="D3" s="20"/>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="11"/>
@@ -867,7 +892,7 @@
       <c r="C4" s="19"/>
       <c r="D4" s="20"/>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="11"/>
@@ -890,7 +915,7 @@
       <c r="C5" s="19"/>
       <c r="D5" s="20"/>
       <c r="E5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="11"/>
@@ -910,11 +935,11 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="21"/>
       <c r="H6" s="11"/>
@@ -939,11 +964,11 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="19"/>
       <c r="D7" s="20"/>
       <c r="E7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="21"/>
       <c r="H7" s="11"/>
@@ -966,11 +991,11 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="E8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="21"/>
       <c r="H8" s="11"/>
@@ -993,7 +1018,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2"/>
       <c r="H9" s="2"/>
@@ -1016,7 +1041,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2"/>
       <c r="H10" s="2"/>
@@ -1039,7 +1064,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2"/>
       <c r="H11" s="2"/>
@@ -1062,7 +1087,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2"/>
       <c r="I12" s="2"/>
@@ -1084,12 +1109,12 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="G14" s="22"/>
@@ -1109,7 +1134,7 @@
       <c r="V14" s="12"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="F15" s="21"/>
@@ -1127,9 +1152,9 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="K16" s="2"/>
@@ -1145,7 +1170,7 @@
       <c r="U16" s="2"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="K17" s="2"/>
@@ -1162,7 +1187,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="4"/>
@@ -1194,7 +1219,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="46"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1209,7 +1234,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="46"/>
       <c r="E21" s="4"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1282,25 +1307,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="42" t="s">
         <v>26</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="47.85" customHeight="1" x14ac:dyDescent="0.25">

--- a/Logbook.xlsx
+++ b/Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Experimental Data\Oh-hyeon Choung\P5_ShortProjects\TPD_priority_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69D90ED-32AF-4A17-82DF-499ACB991756}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285C8CD8-18E7-424C-8F9C-91E489E30EB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25275" windowHeight="10320" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Experimenter</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
   </si>
 </sst>
 </file>
@@ -722,7 +725,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,6 +851,9 @@
       <c r="E2" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
       <c r="I2" s="22"/>
       <c r="J2" s="11"/>
       <c r="K2" s="12"/>
@@ -873,6 +879,9 @@
       <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
       <c r="I3" s="22"/>
       <c r="J3" s="11"/>
       <c r="K3" s="2"/>
@@ -889,6 +898,9 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
+      <c r="B4" s="45" t="s">
+        <v>40</v>
+      </c>
       <c r="C4" s="19"/>
       <c r="D4" s="20"/>
       <c r="E4" s="3" t="s">

--- a/Logbook.xlsx
+++ b/Logbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Experimental Data\Oh-hyeon Choung\P5_ShortProjects\TPD_priority_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285C8CD8-18E7-424C-8F9C-91E489E30EB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C07EBC-BE5B-45B6-8DDB-5E5E07D53A10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25275" windowHeight="10320" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participants List" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Experimenter</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
   </si>
 </sst>
 </file>
@@ -725,7 +728,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,6 +909,9 @@
       <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
       <c r="I4" s="22"/>
       <c r="J4" s="11"/>
       <c r="K4" s="2"/>
@@ -924,10 +930,16 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
+      <c r="B5" s="45" t="s">
+        <v>41</v>
+      </c>
       <c r="C5" s="19"/>
       <c r="D5" s="20"/>
       <c r="E5" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="11"/>
